--- a/datosjaja.xlsx
+++ b/datosjaja.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,7 +432,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2024-02-19</t>
+          <t>2024-02-20</t>
         </is>
       </c>
     </row>
@@ -523,375 +523,917 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>16:28:22</t>
+          <t>13:05:17</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>0.0001093548263888889</v>
+        <v>0.0001296367476851852</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>217</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16:28:23</t>
+          <t>13:05:15</t>
         </is>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.0001197518287037037</v>
+        <v>0.0001088834259259259</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>217</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>16:28:18</t>
+          <t>13:05:21</t>
         </is>
       </c>
       <c r="H4" s="1" t="n">
-        <v>6.652930555555556e-05</v>
+        <v>0.0001756458912037037</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>101</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>16:28:19</t>
+          <t>13:05:19</t>
         </is>
       </c>
       <c r="K4" s="1" t="n">
-        <v>7.473281250000001e-05</v>
+        <v>0.0001563680555555555</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>101</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>16:28:22</t>
+          <t>13:05:17</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>3.075358796296296e-06</v>
+        <v>4.857523148148148e-07</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>217</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16:28:23</t>
+          <t>13:05:15</t>
         </is>
       </c>
       <c r="E5" s="1" t="n">
-        <v>2.274490740740741e-06</v>
+        <v>1.7459375e-06</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>217</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>16:28:20</t>
+          <t>13:05:21</t>
         </is>
       </c>
       <c r="H5" s="1" t="n">
-        <v>1.905498842592592e-05</v>
+        <v>1.668726851851852e-06</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>102</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>16:28:25</t>
+          <t>13:05:19</t>
         </is>
       </c>
       <c r="K5" s="1" t="n">
-        <v>6.677876157407407e-05</v>
+        <v>3.716782407407408e-07</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>101</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>16:28:24</t>
+          <t>13:05:17</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>2.265488425925926e-05</v>
+        <v>3.854861111111112e-07</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>217</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>16:28:23</t>
+          <t>13:05:16</t>
         </is>
       </c>
       <c r="E6" s="1" t="n">
-        <v>2.874398148148148e-06</v>
+        <v>9.872766203703704e-06</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>216</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>16:28:26</t>
+          <t>13:05:21</t>
         </is>
       </c>
       <c r="H6" s="1" t="n">
-        <v>6.273928240740741e-05</v>
+        <v>4.290509259259259e-07</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>101</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>16:28:27</t>
+          <t>13:05:19</t>
         </is>
       </c>
       <c r="K6" s="1" t="n">
-        <v>1.962329861111111e-05</v>
+        <v>2.589710648148148e-06</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>101</t>
         </is>
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>13:05:17</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>7.831944444444445e-07</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>16:28:24</t>
+          <t>13:05:16</t>
         </is>
       </c>
       <c r="E7" s="1" t="n">
-        <v>9.224074074074074e-07</v>
+        <v>1.864421296296296e-06</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>217</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>16:28:26</t>
+          <t>13:05:22</t>
         </is>
       </c>
       <c r="H7" s="1" t="n">
-        <v>2.233993055555555e-06</v>
+        <v>7.863854166666667e-06</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>102</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>16:28:28</t>
+          <t>13:05:20</t>
         </is>
       </c>
       <c r="K7" s="1" t="n">
-        <v>1.058069444444444e-05</v>
+        <v>1.423761574074074e-06</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>102</t>
         </is>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13:05:17</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>4.211944444444444e-06</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>16:28:24</t>
+          <t>13:05:16</t>
         </is>
       </c>
       <c r="E8" s="1" t="n">
-        <v>6.312037037037037e-07</v>
+        <v>1.567638888888889e-06</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>217</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>16:28:26</t>
+          <t>13:05:22</t>
         </is>
       </c>
       <c r="H8" s="1" t="n">
-        <v>2.919699074074074e-06</v>
+        <v>7.870138888888889e-07</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>13:05:20</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>2.425451388888889e-06</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>102</t>
         </is>
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>13:05:17</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1.216377314814815e-06</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>16:28:24</t>
+          <t>13:05:28</t>
         </is>
       </c>
       <c r="E9" s="1" t="n">
-        <v>2.340277777777778e-08</v>
+        <v>0.0001289028009259259</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>216</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>16:28:26</t>
+          <t>13:05:22</t>
         </is>
       </c>
       <c r="H9" s="1" t="n">
-        <v>4.111111111111111e-08</v>
+        <v>1.157476851851852e-06</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>13:05:24</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>5.162771990740741e-05</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>102</t>
         </is>
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>13:05:18</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>2.376342592592593e-06</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>16:28:27</t>
+          <t>13:05:28</t>
         </is>
       </c>
       <c r="E10" s="1" t="n">
-        <v>3.53519212962963e-05</v>
+        <v>1.572673611111111e-06</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>217</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>16:28:26</t>
+          <t>13:05:22</t>
         </is>
       </c>
       <c r="H10" s="1" t="n">
-        <v>6.140162037037037e-07</v>
+        <v>4.599270833333333e-06</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>13:05:24</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>2.875335648148148e-06</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>101</t>
         </is>
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>13:05:18</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>3.756608796296296e-06</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>16:28:27</t>
+          <t>13:05:28</t>
         </is>
       </c>
       <c r="E11" s="1" t="n">
-        <v>1.888032407407407e-06</v>
+        <v>1.084884259259259e-06</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>217</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>16:28:26</t>
+          <t>13:05:22</t>
         </is>
       </c>
       <c r="H11" s="1" t="n">
-        <v>6.482407407407408e-07</v>
+        <v>2.277037037037037e-06</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>13:05:25</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>3.311689814814815e-07</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>102</t>
         </is>
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>13:05:18</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>1.323576388888889e-06</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>16:28:27</t>
+          <t>13:05:28</t>
         </is>
       </c>
       <c r="E12" s="1" t="n">
-        <v>3.680555555555556e-08</v>
+        <v>2.155138888888889e-06</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>13:05:23</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>1.29837962962963e-06</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>13:05:25</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>1.513275462962963e-06</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>102</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>16:28:27</t>
-        </is>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>2.771180555555555e-07</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>13:05:26</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>8.804383101851852e-05</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>13:05:23</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>3.226504629629629e-07</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>13:05:25</t>
+        </is>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>2.078958333333334e-06</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>101</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>16:28:27</t>
-        </is>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>1.28193287037037e-06</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13:05:26</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>4.24988425925926e-07</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>13:05:23</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>5.733333333333333e-07</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>13:05:25</t>
+        </is>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>2.473645833333333e-06</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>101</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>16:28:27</t>
-        </is>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>3.926365740740741e-06</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>13:05:26</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>1.344780092592593e-06</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>13:05:23</t>
+        </is>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>4.162731481481481e-07</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>13:05:25</t>
+        </is>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>2.141620370370371e-06</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>13:05:26</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>1.080381944444444e-06</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>13:05:23</t>
+        </is>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>2.560810185185185e-06</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>13:05:25</t>
+        </is>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>4.587152777777778e-07</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>13:05:26</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>8.976736111111111e-07</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>13:05:23</t>
+        </is>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>2.959953703703704e-07</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>13:05:25</t>
+        </is>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>4.175925925925926e-07</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>13:05:26</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>8.300462962962964e-07</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>13:05:23</t>
+        </is>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>4.240393518518519e-07</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>13:05:26</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>9.109375e-07</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>13:05:23</t>
+        </is>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>5.644097222222222e-07</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>13:05:26</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>9.120370370370369e-07</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>13:05:23</t>
+        </is>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>2.753368055555555e-06</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>13:05:26</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>5.923379629629629e-07</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>13:05:23</t>
+        </is>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>1.065856481481482e-06</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>13:05:26</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>8.780324074074074e-07</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>13:05:24</t>
+        </is>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>1.706041666666667e-06</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>13:05:26</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>9.26400462962963e-07</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>13:05:24</t>
+        </is>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>1.372835648148148e-06</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>13:05:27</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>1.190509259259259e-06</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>13:05:24</t>
+        </is>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>1.341446759259259e-06</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>13:05:24</t>
+        </is>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>9.170138888888888e-07</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>13:05:24</t>
+        </is>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>1.930798611111111e-06</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>101</t>
         </is>
       </c>
     </row>

--- a/datosjaja.xlsx
+++ b/datosjaja.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,11 +523,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>13:05:17</t>
+          <t>13:33:35</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>0.0001296367476851852</v>
+        <v>0.0001075723958333333</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -536,11 +536,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13:05:15</t>
+          <t>13:33:37</t>
         </is>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.0001088834259259259</v>
+        <v>0.0001297355787037037</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -549,11 +549,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>13:05:21</t>
+          <t>13:33:33</t>
         </is>
       </c>
       <c r="H4" s="1" t="n">
-        <v>0.0001756458912037037</v>
+        <v>7.649614583333333e-05</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -562,39 +562,39 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>13:05:19</t>
+          <t>13:33:34</t>
         </is>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0.0001563680555555555</v>
+        <v>9.055069444444445e-05</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>102</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:05:17</t>
+          <t>13:33:35</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>4.857523148148148e-07</v>
+        <v>2.436435185185185e-06</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>216</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13:05:15</t>
+          <t>13:33:45</t>
         </is>
       </c>
       <c r="E5" s="1" t="n">
-        <v>1.7459375e-06</v>
+        <v>8.900833333333333e-05</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -603,65 +603,65 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>13:05:21</t>
+          <t>13:33:33</t>
         </is>
       </c>
       <c r="H5" s="1" t="n">
-        <v>1.668726851851852e-06</v>
+        <v>3.635532407407407e-07</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>101</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>13:05:19</t>
+          <t>13:33:34</t>
         </is>
       </c>
       <c r="K5" s="1" t="n">
-        <v>3.716782407407408e-07</v>
+        <v>6.150694444444445e-07</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>102</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>13:05:17</t>
+          <t>13:33:43</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>3.854861111111112e-07</v>
+        <v>9.117731481481481e-05</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>216</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13:05:16</t>
+          <t>13:33:45</t>
         </is>
       </c>
       <c r="E6" s="1" t="n">
-        <v>9.872766203703704e-06</v>
+        <v>1.056041666666667e-06</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>217</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>13:05:21</t>
+          <t>13:33:33</t>
         </is>
       </c>
       <c r="H6" s="1" t="n">
-        <v>4.290509259259259e-07</v>
+        <v>5.105439814814815e-07</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -670,11 +670,11 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>13:05:19</t>
+          <t>13:33:34</t>
         </is>
       </c>
       <c r="K6" s="1" t="n">
-        <v>2.589710648148148e-06</v>
+        <v>3.883680555555556e-07</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -685,37 +685,37 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>13:05:17</t>
+          <t>13:33:43</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>7.831944444444445e-07</v>
+        <v>7.008796296296296e-07</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13:33:45</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>1.67318287037037e-06</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>216</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>13:05:16</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>1.864421296296296e-06</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>13:05:22</t>
+          <t>13:33:33</t>
         </is>
       </c>
       <c r="H7" s="1" t="n">
-        <v>7.863854166666667e-06</v>
+        <v>1.419537037037037e-06</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -724,39 +724,39 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>13:05:20</t>
+          <t>13:33:34</t>
         </is>
       </c>
       <c r="K7" s="1" t="n">
-        <v>1.423761574074074e-06</v>
+        <v>3.394675925925926e-07</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>101</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>13:05:17</t>
+          <t>13:33:44</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>4.211944444444444e-06</v>
+        <v>1.410729166666667e-06</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>217</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13:05:16</t>
+          <t>13:35:21</t>
         </is>
       </c>
       <c r="E8" s="1" t="n">
-        <v>1.567638888888889e-06</v>
+        <v>0.001108295462962963</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -765,65 +765,65 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>13:05:22</t>
+          <t>13:33:33</t>
         </is>
       </c>
       <c r="H8" s="1" t="n">
-        <v>7.870138888888889e-07</v>
+        <v>1.045104166666667e-06</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>101</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>13:05:20</t>
+          <t>13:34:06</t>
         </is>
       </c>
       <c r="K8" s="1" t="n">
-        <v>2.425451388888889e-06</v>
+        <v>0.0003680993402777778</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>101</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>13:05:17</t>
+          <t>13:33:44</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>1.216377314814815e-06</v>
+        <v>1.313831018518519e-06</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>218</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13:05:28</t>
+          <t>13:35:22</t>
         </is>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.0001289028009259259</v>
+        <v>7.628680555555556e-06</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>217</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>13:05:22</t>
+          <t>13:33:33</t>
         </is>
       </c>
       <c r="H9" s="1" t="n">
-        <v>1.157476851851852e-06</v>
+        <v>3.965462962962963e-06</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -832,11 +832,11 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>13:05:24</t>
+          <t>13:34:06</t>
         </is>
       </c>
       <c r="K9" s="1" t="n">
-        <v>5.162771990740741e-05</v>
+        <v>2.648125e-06</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -847,11 +847,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>13:05:18</t>
+          <t>13:33:44</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>2.376342592592593e-06</v>
+        <v>5.60775462962963e-07</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -860,11 +860,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>13:05:28</t>
+          <t>13:35:22</t>
         </is>
       </c>
       <c r="E10" s="1" t="n">
-        <v>1.572673611111111e-06</v>
+        <v>1.930104166666667e-06</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -873,24 +873,24 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>13:05:22</t>
+          <t>13:33:33</t>
         </is>
       </c>
       <c r="H10" s="1" t="n">
-        <v>4.599270833333333e-06</v>
+        <v>1.979178240740741e-06</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>102</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>13:05:24</t>
+          <t>13:34:06</t>
         </is>
       </c>
       <c r="K10" s="1" t="n">
-        <v>2.875335648148148e-06</v>
+        <v>3.963888888888889e-07</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -901,11 +901,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>13:05:18</t>
+          <t>13:33:44</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>3.756608796296296e-06</v>
+        <v>1.698229166666667e-06</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -914,11 +914,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13:05:28</t>
+          <t>13:35:22</t>
         </is>
       </c>
       <c r="E11" s="1" t="n">
-        <v>1.084884259259259e-06</v>
+        <v>3.482743055555555e-06</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -927,24 +927,24 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>13:05:22</t>
+          <t>13:34:07</t>
         </is>
       </c>
       <c r="H11" s="1" t="n">
-        <v>2.277037037037037e-06</v>
+        <v>0.0003909180324074074</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>102</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>13:05:25</t>
+          <t>13:34:06</t>
         </is>
       </c>
       <c r="K11" s="1" t="n">
-        <v>3.311689814814815e-07</v>
+        <v>3.293981481481482e-07</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -955,24 +955,24 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>13:05:18</t>
+          <t>13:33:44</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>1.323576388888889e-06</v>
+        <v>1.324861111111111e-06</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>218</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>13:05:28</t>
+          <t>13:35:22</t>
         </is>
       </c>
       <c r="E12" s="1" t="n">
-        <v>2.155138888888889e-06</v>
+        <v>1.377326388888889e-06</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -981,11 +981,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>13:05:23</t>
+          <t>13:34:07</t>
         </is>
       </c>
       <c r="H12" s="1" t="n">
-        <v>1.29837962962963e-06</v>
+        <v>1.943645833333333e-06</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -994,39 +994,52 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>13:05:25</t>
+          <t>13:34:06</t>
         </is>
       </c>
       <c r="K12" s="1" t="n">
-        <v>1.513275462962963e-06</v>
+        <v>3.264942129629629e-06</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>101</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>13:05:26</t>
+          <t>13:33:44</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.804383101851852e-05</v>
+        <v>2.009386574074074e-06</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13:35:25</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>3.67075462962963e-05</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>218</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>13:05:23</t>
+          <t>13:34:07</t>
         </is>
       </c>
       <c r="H13" s="1" t="n">
-        <v>3.226504629629629e-07</v>
+        <v>9.721990740740741e-07</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1035,54 +1048,54 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>13:05:25</t>
+          <t>13:34:06</t>
         </is>
       </c>
       <c r="K13" s="1" t="n">
-        <v>2.078958333333334e-06</v>
+        <v>1.157152777777778e-06</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>102</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13:05:26</t>
+          <t>13:35:23</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>4.24988425925926e-07</v>
+        <v>0.00114981275462963</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13:35:26</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>4.363518518518518e-06</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>13:05:23</t>
+          <t>13:34:08</t>
         </is>
       </c>
       <c r="H14" s="1" t="n">
-        <v>5.733333333333333e-07</v>
+        <v>8.993402777777777e-07</v>
       </c>
       <c r="I14" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>13:05:25</t>
-        </is>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>2.473645833333333e-06</v>
-      </c>
-      <c r="L14" t="inlineStr">
         <is>
           <t>101</t>
         </is>
@@ -1091,134 +1104,121 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>13:05:26</t>
+          <t>13:35:24</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>1.344780092592593e-06</v>
+        <v>1.528460648148148e-06</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13:35:26</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>1.778020833333333e-06</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>13:05:23</t>
+          <t>13:34:08</t>
         </is>
       </c>
       <c r="H15" s="1" t="n">
-        <v>4.162731481481481e-07</v>
+        <v>1.239768518518519e-06</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>102</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>13:05:25</t>
-        </is>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>2.141620370370371e-06</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>101</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13:05:26</t>
+          <t>13:35:24</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>1.080381944444444e-06</v>
+        <v>1.12650462962963e-06</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13:35:26</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>6.111805555555555e-07</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>217</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>13:05:23</t>
+          <t>13:34:08</t>
         </is>
       </c>
       <c r="H16" s="1" t="n">
-        <v>2.560810185185185e-06</v>
+        <v>9.489699074074073e-07</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>13:05:25</t>
-        </is>
-      </c>
-      <c r="K16" s="1" t="n">
-        <v>4.587152777777778e-07</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>102</t>
+          <t>101</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>13:05:26</t>
+          <t>13:35:24</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>8.976736111111111e-07</v>
+        <v>1.152291666666667e-06</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>217</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>13:05:23</t>
+          <t>13:34:09</t>
         </is>
       </c>
       <c r="H17" s="1" t="n">
-        <v>2.959953703703704e-07</v>
+        <v>1.736890046296296e-05</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>13:05:25</t>
-        </is>
-      </c>
-      <c r="K17" s="1" t="n">
-        <v>4.175925925925926e-07</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>102</t>
+          <t>101</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>13:05:26</t>
+          <t>13:35:24</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>8.300462962962964e-07</v>
+        <v>1.272372685185185e-06</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1227,11 +1227,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13:05:23</t>
+          <t>13:34:11</t>
         </is>
       </c>
       <c r="H18" s="1" t="n">
-        <v>4.240393518518519e-07</v>
+        <v>2.509479166666667e-05</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1242,39 +1242,39 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>13:05:26</t>
+          <t>13:35:24</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>9.109375e-07</v>
+        <v>1.997789351851852e-06</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>216</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>13:05:23</t>
+          <t>13:34:13</t>
         </is>
       </c>
       <c r="H19" s="1" t="n">
-        <v>5.644097222222222e-07</v>
+        <v>1.93147337962963e-05</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>102</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>13:05:26</t>
+          <t>13:35:24</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>9.120370370370369e-07</v>
+        <v>8.961921296296296e-07</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1283,39 +1283,39 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>13:05:23</t>
+          <t>13:34:13</t>
         </is>
       </c>
       <c r="H20" s="1" t="n">
-        <v>2.753368055555555e-06</v>
+        <v>2.346585648148148e-06</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>101</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>13:05:26</t>
+          <t>13:35:24</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>5.923379629629629e-07</v>
+        <v>1.006145833333333e-06</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>217</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13:05:23</t>
+          <t>13:34:15</t>
         </is>
       </c>
       <c r="H21" s="1" t="n">
-        <v>1.065856481481482e-06</v>
+        <v>1.733456018518519e-05</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1326,11 +1326,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>13:05:26</t>
+          <t>13:35:24</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>8.780324074074074e-07</v>
+        <v>1.926053240740741e-06</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1339,11 +1339,11 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>13:05:24</t>
+          <t>13:34:17</t>
         </is>
       </c>
       <c r="H22" s="1" t="n">
-        <v>1.706041666666667e-06</v>
+        <v>2.746185185185185e-05</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1354,11 +1354,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>13:05:26</t>
+          <t>13:35:25</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>9.26400462962963e-07</v>
+        <v>3.199525462962963e-06</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1367,11 +1367,11 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>13:05:24</t>
+          <t>13:35:06</t>
         </is>
       </c>
       <c r="H23" s="1" t="n">
-        <v>1.372835648148148e-06</v>
+        <v>0.0005668961574074074</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1380,58 +1380,75 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>13:05:27</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>1.190509259259259e-06</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>13:05:24</t>
+          <t>13:35:06</t>
         </is>
       </c>
       <c r="H24" s="1" t="n">
-        <v>1.341446759259259e-06</v>
+        <v>1.734513888888889e-06</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>102</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="G25" t="inlineStr">
         <is>
-          <t>13:05:24</t>
+          <t>13:35:06</t>
         </is>
       </c>
       <c r="H25" s="1" t="n">
-        <v>9.170138888888888e-07</v>
+        <v>5.485416666666667e-07</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>101</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="G26" t="inlineStr">
         <is>
-          <t>13:05:24</t>
+          <t>13:35:10</t>
         </is>
       </c>
       <c r="H26" s="1" t="n">
-        <v>1.930798611111111e-06</v>
+        <v>4.740313657407407e-05</v>
       </c>
       <c r="I26" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>13:35:11</t>
+        </is>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>1.530613425925926e-06</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>13:35:13</t>
+        </is>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>2.774577546296296e-05</v>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>101</t>
         </is>
